--- a/docs/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
+++ b/docs/_static/xlsx/tab_aggiornamenti_alla_documentazione_tecnica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="99">
   <si>
     <t>documenti aggiornati</t>
   </si>
@@ -251,6 +251,66 @@
   </si>
   <si>
     <t>DatiIscrizione.xlsx</t>
+  </si>
+  <si>
+    <t>Modifica tracciato vocabolarioSubentro.xsd per la trasmissione di più cittadinanze</t>
+  </si>
+  <si>
+    <t>Scioglimento matrimonio</t>
+  </si>
+  <si>
+    <t>Sentenza.xlsx</t>
+  </si>
+  <si>
+    <t>Estensione dell'oggetto sentenza anche per divorzio breve</t>
+  </si>
+  <si>
+    <t>tabella 32_tipo_tribunale</t>
+  </si>
+  <si>
+    <t>Aggiunto codice 4: Avvocato/Notaio</t>
+  </si>
+  <si>
+    <t>tabella_43_tipo_cessazione_unioneCivile-convivenze.xlsx</t>
+  </si>
+  <si>
+    <t>specifiche xlsx</t>
+  </si>
+  <si>
+    <t>matrimonio.xlsx</t>
+  </si>
+  <si>
+    <t>datiEvento.xlsx</t>
+  </si>
+  <si>
+    <t>Reso il luogo evento non obbligatorio</t>
+  </si>
+  <si>
+    <t>Guida operativa per il censimento degli utenti e delle postazioni e delle successive attività di consegna delle smart card - pdf.</t>
+  </si>
+  <si>
+    <t>Aggiornato censimento utenti area privata CNSD e numero smart card</t>
+  </si>
+  <si>
+    <t>errori_anpr_11_05_2017.xlsx</t>
+  </si>
+  <si>
+    <t>errori_ae_11_05_2017.xlsx</t>
+  </si>
+  <si>
+    <t>Aggiornamento codici di errore di ANPR</t>
+  </si>
+  <si>
+    <t>Aggiornamento codici di errore dei servizi di Agenzia Entrate</t>
+  </si>
+  <si>
+    <t>Resi obbligatori i dati matrimonio in quanto obbligatoria la data matrimonio (vedi eccezioni)</t>
+  </si>
+  <si>
+    <t>Modificate le codifiche per unioni civili (solo per ambiente test/presubentro)</t>
+  </si>
+  <si>
+    <t>Invio file di Subentro.pdf</t>
   </si>
 </sst>
 </file>
@@ -756,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -776,6 +836,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1119,17 +1182,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="76.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1140,7 +1203,7 @@
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1154,7 +1217,7 @@
       <c r="B2" s="1">
         <v>6001</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -1168,7 +1231,7 @@
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1182,7 +1245,7 @@
       <c r="B4" s="1">
         <v>2003</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -1196,7 +1259,7 @@
       <c r="B5" s="1">
         <v>3007</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1210,7 +1273,7 @@
       <c r="B6" s="1">
         <v>5008</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1224,7 +1287,7 @@
       <c r="B7" s="1">
         <v>5008</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1236,7 +1299,7 @@
         <v>42752</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1248,7 +1311,7 @@
         <v>42752</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
@@ -1260,7 +1323,7 @@
         <v>42752</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -1274,7 +1337,7 @@
       <c r="B11" s="1">
         <v>1002</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -1288,7 +1351,7 @@
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -1302,7 +1365,7 @@
       <c r="B13" s="1">
         <v>5008</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -1316,7 +1379,7 @@
       <c r="B14" s="1">
         <v>3002</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -1330,7 +1393,7 @@
       <c r="B15" s="1">
         <v>5008</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
@@ -1344,7 +1407,7 @@
       <c r="B16" s="1">
         <v>1002</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
@@ -1358,7 +1421,7 @@
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -1370,7 +1433,7 @@
         <v>42755</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -1382,7 +1445,7 @@
         <v>42755</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -1394,7 +1457,7 @@
         <v>42755</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -1406,7 +1469,7 @@
         <v>42755</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -1418,7 +1481,7 @@
         <v>42755</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -1432,7 +1495,7 @@
       <c r="B23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -1446,7 +1509,7 @@
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -1460,7 +1523,7 @@
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="4" t="s">
@@ -1474,7 +1537,7 @@
       <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -1488,7 +1551,7 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -1502,7 +1565,7 @@
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -1516,7 +1579,7 @@
       <c r="B29" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -1530,7 +1593,7 @@
       <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1544,7 +1607,7 @@
       <c r="B31" s="9">
         <v>1002</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1558,7 +1621,7 @@
       <c r="B32" s="9">
         <v>1002</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1572,7 +1635,7 @@
       <c r="B33" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1586,7 +1649,7 @@
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -1600,7 +1663,7 @@
       <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -1614,7 +1677,7 @@
       <c r="B36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -1628,7 +1691,7 @@
       <c r="B37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -1642,7 +1705,7 @@
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -1656,7 +1719,7 @@
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -1670,7 +1733,7 @@
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D40" s="5" t="s">
@@ -1684,11 +1747,193 @@
       <c r="B41" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>42832</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>42837</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="7">
+        <v>42866</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1829,13 +2074,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{872D4FEA-0E1A-4A2F-890F-971ABD26DD30}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
